--- a/biology/Zoologie/Belle_et_Sébastien/Belle_et_Sébastien.xlsx
+++ b/biology/Zoologie/Belle_et_Sébastien/Belle_et_Sébastien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien</t>
+          <t>Belle_et_Sébastien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belle et Sébastien est une série de romans de Cécile Aubry qui a eu de nombreuses adaptations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Belle_et_S%C3%A9bastien</t>
+          <t>Belle_et_Sébastien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">À la télévision
-1965 : Belle et Sébastien, feuilleton télévisé écrit et réalisé par Cécile Aubry
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1965 : Belle et Sébastien, feuilleton télévisé écrit et réalisé par Cécile Aubry
 1981-1982 : Belle et Sébastien, série télévisée d'animation japonaise
 2017 : Belle et Sébastien, série d'animation avec les voix de Jessica Kardos,  Brittany Drisdelle et Mark Camacho
 Sébastien parmi les hommes
-Sébastien et la Mary-Morgane
-Au cinéma
-Belle et Sébastien, réalisé en 2013 par Nicolas Vanier
+Sébastien et la Mary-Morgane</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Belle_et_Sébastien</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belle_et_S%C3%A9bastien</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belle et Sébastien, réalisé en 2013 par Nicolas Vanier
 Belle et Sébastien : L'aventure continue, réalisé en 2014 (sorti en décembre 2015) par Christian Duguay
 Belle et Sébastien 3 : Le Dernier Chapitre, réalisé en 2018 par Clovis Cornillac
 Belle et Sébastien : Nouvelle Génération, réalisé en 2021 (sorti en octobre 2022) par Pierre Coré
